--- a/Data/Reports/COOPERATIVA LANGUIRU LTDA.xlsx
+++ b/Data/Reports/COOPERATIVA LANGUIRU LTDA.xlsx
@@ -4182,13 +4182,33 @@
       <c r="BT28" s="1" t="n"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="18">
-      <c r="A29" s="32" t="n"/>
+      <c r="A29" s="32" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
       <c r="B29" s="32" t="n"/>
       <c r="C29" s="32" t="n"/>
-      <c r="D29" s="32" t="n"/>
-      <c r="E29" s="49" t="n"/>
-      <c r="F29" s="49" t="n"/>
-      <c r="G29" s="89" t="n"/>
+      <c r="D29" s="32" t="inlineStr">
+        <is>
+          <t>000000000000000</t>
+        </is>
+      </c>
+      <c r="E29" s="49" t="inlineStr">
+        <is>
+          <t>COOPERATIVA LANGUIRU LTDA</t>
+        </is>
+      </c>
+      <c r="F29" s="49" t="inlineStr">
+        <is>
+          <t>JOSE VALDIR DA SILVA</t>
+        </is>
+      </c>
+      <c r="G29" s="89" t="inlineStr">
+        <is>
+          <t>2.227,08</t>
+        </is>
+      </c>
       <c r="H29" s="34" t="n"/>
       <c r="I29" s="32" t="n"/>
       <c r="J29" s="32" t="n"/>
@@ -4213,11 +4233,27 @@
       <c r="AC29" s="38" t="n"/>
       <c r="AD29" s="38" t="n"/>
       <c r="AE29" s="38" t="n"/>
-      <c r="AF29" s="90" t="n"/>
-      <c r="AG29" s="90" t="n"/>
-      <c r="AH29" s="32" t="n"/>
+      <c r="AF29" s="90" t="inlineStr">
+        <is>
+          <t>05871900294156</t>
+        </is>
+      </c>
+      <c r="AG29" s="90" t="inlineStr">
+        <is>
+          <t>00000208678</t>
+        </is>
+      </c>
+      <c r="AH29" s="32" t="inlineStr">
+        <is>
+          <t>26/11/1986</t>
+        </is>
+      </c>
       <c r="AI29" s="32" t="n"/>
-      <c r="AJ29" s="32" t="n"/>
+      <c r="AJ29" s="32" t="inlineStr">
+        <is>
+          <t>10251400988</t>
+        </is>
+      </c>
       <c r="AK29" s="32" t="n"/>
       <c r="AL29" s="32" t="n"/>
       <c r="AM29" s="32" t="n"/>
@@ -4255,13 +4291,33 @@
       <c r="BT29" s="1" t="n"/>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="18">
-      <c r="A30" s="32" t="n"/>
+      <c r="A30" s="32" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
       <c r="B30" s="32" t="n"/>
       <c r="C30" s="32" t="n"/>
-      <c r="D30" s="32" t="n"/>
-      <c r="E30" s="49" t="n"/>
-      <c r="F30" s="49" t="n"/>
-      <c r="G30" s="89" t="n"/>
+      <c r="D30" s="32" t="inlineStr">
+        <is>
+          <t>000000000000000</t>
+        </is>
+      </c>
+      <c r="E30" s="49" t="inlineStr">
+        <is>
+          <t>COOPERATIVA LANGUIRU LTDA</t>
+        </is>
+      </c>
+      <c r="F30" s="49" t="inlineStr">
+        <is>
+          <t>OLAVO SCHWINGEL</t>
+        </is>
+      </c>
+      <c r="G30" s="89" t="inlineStr">
+        <is>
+          <t>50,94</t>
+        </is>
+      </c>
       <c r="H30" s="34" t="n"/>
       <c r="I30" s="32" t="n"/>
       <c r="J30" s="32" t="n"/>
@@ -4286,11 +4342,27 @@
       <c r="AC30" s="38" t="n"/>
       <c r="AD30" s="38" t="n"/>
       <c r="AE30" s="38" t="n"/>
-      <c r="AF30" s="90" t="n"/>
-      <c r="AG30" s="90" t="n"/>
-      <c r="AH30" s="32" t="n"/>
+      <c r="AF30" s="90" t="inlineStr">
+        <is>
+          <t>05871900294156</t>
+        </is>
+      </c>
+      <c r="AG30" s="90" t="inlineStr">
+        <is>
+          <t>00000208759</t>
+        </is>
+      </c>
+      <c r="AH30" s="32" t="inlineStr">
+        <is>
+          <t>13/07/1989</t>
+        </is>
+      </c>
       <c r="AI30" s="32" t="n"/>
-      <c r="AJ30" s="32" t="n"/>
+      <c r="AJ30" s="32" t="inlineStr">
+        <is>
+          <t>10256980230</t>
+        </is>
+      </c>
       <c r="AK30" s="32" t="n"/>
       <c r="AL30" s="32" t="n"/>
       <c r="AM30" s="32" t="n"/>
@@ -4328,13 +4400,33 @@
       <c r="BT30" s="1" t="n"/>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="18">
-      <c r="A31" s="32" t="n"/>
+      <c r="A31" s="32" t="inlineStr">
+        <is>
+          <t>00002</t>
+        </is>
+      </c>
       <c r="B31" s="32" t="n"/>
       <c r="C31" s="32" t="n"/>
-      <c r="D31" s="32" t="n"/>
-      <c r="E31" s="49" t="n"/>
-      <c r="F31" s="49" t="n"/>
-      <c r="G31" s="89" t="n"/>
+      <c r="D31" s="32" t="inlineStr">
+        <is>
+          <t>208434420145040</t>
+        </is>
+      </c>
+      <c r="E31" s="49" t="inlineStr">
+        <is>
+          <t>COOPERATIVA LANGUIRU LTDA</t>
+        </is>
+      </c>
+      <c r="F31" s="49" t="inlineStr">
+        <is>
+          <t>SIMONE RODRIGUES DUARTE</t>
+        </is>
+      </c>
+      <c r="G31" s="89" t="inlineStr">
+        <is>
+          <t>9.138,12</t>
+        </is>
+      </c>
       <c r="H31" s="34" t="n"/>
       <c r="I31" s="32" t="n"/>
       <c r="J31" s="32" t="n"/>
@@ -4359,11 +4451,27 @@
       <c r="AC31" s="38" t="n"/>
       <c r="AD31" s="38" t="n"/>
       <c r="AE31" s="38" t="n"/>
-      <c r="AF31" s="90" t="n"/>
-      <c r="AG31" s="90" t="n"/>
-      <c r="AH31" s="32" t="n"/>
+      <c r="AF31" s="90" t="inlineStr">
+        <is>
+          <t>05871900294156</t>
+        </is>
+      </c>
+      <c r="AG31" s="90" t="inlineStr">
+        <is>
+          <t>00001377562</t>
+        </is>
+      </c>
+      <c r="AH31" s="32" t="inlineStr">
+        <is>
+          <t>28/08/2015</t>
+        </is>
+      </c>
       <c r="AI31" s="32" t="n"/>
-      <c r="AJ31" s="32" t="n"/>
+      <c r="AJ31" s="32" t="inlineStr">
+        <is>
+          <t>16560613020</t>
+        </is>
+      </c>
       <c r="AK31" s="32" t="n"/>
       <c r="AL31" s="32" t="n"/>
       <c r="AM31" s="32" t="n"/>
@@ -4401,13 +4509,33 @@
       <c r="BT31" s="1" t="n"/>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="18">
-      <c r="A32" s="32" t="n"/>
+      <c r="A32" s="32" t="inlineStr">
+        <is>
+          <t>00002</t>
+        </is>
+      </c>
       <c r="B32" s="32" t="n"/>
       <c r="C32" s="32" t="n"/>
-      <c r="D32" s="32" t="n"/>
-      <c r="E32" s="49" t="n"/>
-      <c r="F32" s="49" t="n"/>
-      <c r="G32" s="89" t="n"/>
+      <c r="D32" s="32" t="inlineStr">
+        <is>
+          <t>201490720165040</t>
+        </is>
+      </c>
+      <c r="E32" s="49" t="inlineStr">
+        <is>
+          <t>COOPERATIVA LANGUIRU LTDA</t>
+        </is>
+      </c>
+      <c r="F32" s="49" t="inlineStr">
+        <is>
+          <t>BRUNO MARCOLINO CARDOSO</t>
+        </is>
+      </c>
+      <c r="G32" s="89" t="inlineStr">
+        <is>
+          <t>10.314,85</t>
+        </is>
+      </c>
       <c r="H32" s="34" t="n"/>
       <c r="I32" s="32" t="n"/>
       <c r="J32" s="32" t="n"/>
@@ -4432,11 +4560,27 @@
       <c r="AC32" s="38" t="n"/>
       <c r="AD32" s="38" t="n"/>
       <c r="AE32" s="38" t="n"/>
-      <c r="AF32" s="90" t="n"/>
-      <c r="AG32" s="90" t="n"/>
-      <c r="AH32" s="32" t="n"/>
+      <c r="AF32" s="90" t="inlineStr">
+        <is>
+          <t>05871900294156</t>
+        </is>
+      </c>
+      <c r="AG32" s="90" t="inlineStr">
+        <is>
+          <t>00001521272</t>
+        </is>
+      </c>
+      <c r="AH32" s="32" t="inlineStr">
+        <is>
+          <t>02/05/2017</t>
+        </is>
+      </c>
       <c r="AI32" s="32" t="n"/>
-      <c r="AJ32" s="32" t="n"/>
+      <c r="AJ32" s="32" t="inlineStr">
+        <is>
+          <t>16009094470</t>
+        </is>
+      </c>
       <c r="AK32" s="32" t="n"/>
       <c r="AL32" s="32" t="n"/>
       <c r="AM32" s="32" t="n"/>
@@ -4474,13 +4618,33 @@
       <c r="BT32" s="1" t="n"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="18">
-      <c r="A33" s="32" t="n"/>
+      <c r="A33" s="32" t="inlineStr">
+        <is>
+          <t>00002</t>
+        </is>
+      </c>
       <c r="B33" s="32" t="n"/>
       <c r="C33" s="32" t="n"/>
-      <c r="D33" s="32" t="n"/>
-      <c r="E33" s="49" t="n"/>
-      <c r="F33" s="49" t="n"/>
-      <c r="G33" s="89" t="n"/>
+      <c r="D33" s="32" t="inlineStr">
+        <is>
+          <t>200252420165040</t>
+        </is>
+      </c>
+      <c r="E33" s="49" t="inlineStr">
+        <is>
+          <t>COOPERATIVA LANGUIRU LTDA</t>
+        </is>
+      </c>
+      <c r="F33" s="49" t="inlineStr">
+        <is>
+          <t>CRISTIANO RAMOS ORTIZ</t>
+        </is>
+      </c>
+      <c r="G33" s="89" t="inlineStr">
+        <is>
+          <t>10.498,85</t>
+        </is>
+      </c>
       <c r="H33" s="34" t="n"/>
       <c r="I33" s="32" t="n"/>
       <c r="J33" s="32" t="n"/>
@@ -4505,11 +4669,27 @@
       <c r="AC33" s="38" t="n"/>
       <c r="AD33" s="38" t="n"/>
       <c r="AE33" s="38" t="n"/>
-      <c r="AF33" s="90" t="n"/>
-      <c r="AG33" s="90" t="n"/>
-      <c r="AH33" s="32" t="n"/>
+      <c r="AF33" s="90" t="inlineStr">
+        <is>
+          <t>05871900294156</t>
+        </is>
+      </c>
+      <c r="AG33" s="90" t="inlineStr">
+        <is>
+          <t>00001487740</t>
+        </is>
+      </c>
+      <c r="AH33" s="32" t="inlineStr">
+        <is>
+          <t>05/12/2016</t>
+        </is>
+      </c>
       <c r="AI33" s="32" t="n"/>
-      <c r="AJ33" s="32" t="n"/>
+      <c r="AJ33" s="32" t="inlineStr">
+        <is>
+          <t>16212075132</t>
+        </is>
+      </c>
       <c r="AK33" s="32" t="n"/>
       <c r="AL33" s="32" t="n"/>
       <c r="AM33" s="32" t="n"/>
@@ -4547,13 +4727,33 @@
       <c r="BT33" s="1" t="n"/>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="18">
-      <c r="A34" s="32" t="n"/>
+      <c r="A34" s="32" t="inlineStr">
+        <is>
+          <t>00002</t>
+        </is>
+      </c>
       <c r="B34" s="32" t="n"/>
       <c r="C34" s="32" t="n"/>
-      <c r="D34" s="32" t="n"/>
-      <c r="E34" s="49" t="n"/>
-      <c r="F34" s="49" t="n"/>
-      <c r="G34" s="89" t="n"/>
+      <c r="D34" s="32" t="inlineStr">
+        <is>
+          <t>002081576201450</t>
+        </is>
+      </c>
+      <c r="E34" s="49" t="inlineStr">
+        <is>
+          <t>COOPERATIVA LANGUIRU LTDA</t>
+        </is>
+      </c>
+      <c r="F34" s="49" t="inlineStr">
+        <is>
+          <t>GENESIO ARRUDA</t>
+        </is>
+      </c>
+      <c r="G34" s="89" t="inlineStr">
+        <is>
+          <t>4,64</t>
+        </is>
+      </c>
       <c r="H34" s="34" t="n"/>
       <c r="I34" s="32" t="n"/>
       <c r="J34" s="32" t="n"/>
@@ -4578,11 +4778,27 @@
       <c r="AC34" s="38" t="n"/>
       <c r="AD34" s="38" t="n"/>
       <c r="AE34" s="38" t="n"/>
-      <c r="AF34" s="90" t="n"/>
-      <c r="AG34" s="90" t="n"/>
-      <c r="AH34" s="32" t="n"/>
+      <c r="AF34" s="90" t="inlineStr">
+        <is>
+          <t>05871900294156</t>
+        </is>
+      </c>
+      <c r="AG34" s="90" t="inlineStr">
+        <is>
+          <t>00001403318</t>
+        </is>
+      </c>
+      <c r="AH34" s="32" t="inlineStr">
+        <is>
+          <t>01/02/2016</t>
+        </is>
+      </c>
       <c r="AI34" s="32" t="n"/>
-      <c r="AJ34" s="32" t="n"/>
+      <c r="AJ34" s="32" t="inlineStr">
+        <is>
+          <t>12321269237</t>
+        </is>
+      </c>
       <c r="AK34" s="32" t="n"/>
       <c r="AL34" s="32" t="n"/>
       <c r="AM34" s="32" t="n"/>
@@ -4620,13 +4836,33 @@
       <c r="BT34" s="1" t="n"/>
     </row>
     <row r="35" ht="15.75" customHeight="1" s="18">
-      <c r="A35" s="32" t="n"/>
+      <c r="A35" s="32" t="inlineStr">
+        <is>
+          <t>00002</t>
+        </is>
+      </c>
       <c r="B35" s="32" t="n"/>
       <c r="C35" s="32" t="n"/>
-      <c r="D35" s="32" t="n"/>
-      <c r="E35" s="49" t="n"/>
-      <c r="F35" s="49" t="n"/>
-      <c r="G35" s="89" t="n"/>
+      <c r="D35" s="32" t="inlineStr">
+        <is>
+          <t>208743020155040</t>
+        </is>
+      </c>
+      <c r="E35" s="49" t="inlineStr">
+        <is>
+          <t>COOPERATIVA LANGUIRU LTDA</t>
+        </is>
+      </c>
+      <c r="F35" s="49" t="inlineStr">
+        <is>
+          <t>JAIMIR SILVA</t>
+        </is>
+      </c>
+      <c r="G35" s="89" t="inlineStr">
+        <is>
+          <t>5.958,96</t>
+        </is>
+      </c>
       <c r="H35" s="34" t="n"/>
       <c r="I35" s="32" t="n"/>
       <c r="J35" s="32" t="n"/>
@@ -4651,11 +4887,27 @@
       <c r="AC35" s="38" t="n"/>
       <c r="AD35" s="38" t="n"/>
       <c r="AE35" s="38" t="n"/>
-      <c r="AF35" s="90" t="n"/>
-      <c r="AG35" s="90" t="n"/>
-      <c r="AH35" s="32" t="n"/>
+      <c r="AF35" s="90" t="inlineStr">
+        <is>
+          <t>05871900294156</t>
+        </is>
+      </c>
+      <c r="AG35" s="90" t="inlineStr">
+        <is>
+          <t>00001445401</t>
+        </is>
+      </c>
+      <c r="AH35" s="32" t="inlineStr">
+        <is>
+          <t>19/07/2016</t>
+        </is>
+      </c>
       <c r="AI35" s="32" t="n"/>
-      <c r="AJ35" s="32" t="n"/>
+      <c r="AJ35" s="32" t="inlineStr">
+        <is>
+          <t>12586402679</t>
+        </is>
+      </c>
       <c r="AK35" s="32" t="n"/>
       <c r="AL35" s="32" t="n"/>
       <c r="AM35" s="32" t="n"/>
@@ -4693,13 +4945,33 @@
       <c r="BT35" s="1" t="n"/>
     </row>
     <row r="36" ht="15.75" customHeight="1" s="18">
-      <c r="A36" s="32" t="n"/>
+      <c r="A36" s="32" t="inlineStr">
+        <is>
+          <t>00002</t>
+        </is>
+      </c>
       <c r="B36" s="32" t="n"/>
       <c r="C36" s="32" t="n"/>
-      <c r="D36" s="32" t="n"/>
-      <c r="E36" s="49" t="n"/>
-      <c r="F36" s="49" t="n"/>
-      <c r="G36" s="89" t="n"/>
+      <c r="D36" s="32" t="inlineStr">
+        <is>
+          <t>204378620155040</t>
+        </is>
+      </c>
+      <c r="E36" s="49" t="inlineStr">
+        <is>
+          <t>COOPERATIVA LANGUIRU LTDA</t>
+        </is>
+      </c>
+      <c r="F36" s="49" t="inlineStr">
+        <is>
+          <t>JANINE SILVA JASIULZWICZ</t>
+        </is>
+      </c>
+      <c r="G36" s="89" t="inlineStr">
+        <is>
+          <t>341,31</t>
+        </is>
+      </c>
       <c r="H36" s="34" t="n"/>
       <c r="I36" s="32" t="n"/>
       <c r="J36" s="32" t="n"/>
@@ -4724,11 +4996,27 @@
       <c r="AC36" s="38" t="n"/>
       <c r="AD36" s="38" t="n"/>
       <c r="AE36" s="38" t="n"/>
-      <c r="AF36" s="90" t="n"/>
-      <c r="AG36" s="90" t="n"/>
-      <c r="AH36" s="32" t="n"/>
+      <c r="AF36" s="90" t="inlineStr">
+        <is>
+          <t>05871900294156</t>
+        </is>
+      </c>
+      <c r="AG36" s="90" t="inlineStr">
+        <is>
+          <t>00001445312</t>
+        </is>
+      </c>
+      <c r="AH36" s="32" t="inlineStr">
+        <is>
+          <t>19/07/2016</t>
+        </is>
+      </c>
       <c r="AI36" s="32" t="n"/>
-      <c r="AJ36" s="32" t="n"/>
+      <c r="AJ36" s="32" t="inlineStr">
+        <is>
+          <t>13120527679</t>
+        </is>
+      </c>
       <c r="AK36" s="32" t="n"/>
       <c r="AL36" s="32" t="n"/>
       <c r="AM36" s="32" t="n"/>
@@ -4766,13 +5054,33 @@
       <c r="BT36" s="1" t="n"/>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="18">
-      <c r="A37" s="32" t="n"/>
+      <c r="A37" s="32" t="inlineStr">
+        <is>
+          <t>00002</t>
+        </is>
+      </c>
       <c r="B37" s="32" t="n"/>
       <c r="C37" s="32" t="n"/>
-      <c r="D37" s="32" t="n"/>
-      <c r="E37" s="49" t="n"/>
-      <c r="F37" s="49" t="n"/>
-      <c r="G37" s="89" t="n"/>
+      <c r="D37" s="32" t="inlineStr">
+        <is>
+          <t>204378620155040</t>
+        </is>
+      </c>
+      <c r="E37" s="49" t="inlineStr">
+        <is>
+          <t>COOPERATIVA LANGUIRU LTDA</t>
+        </is>
+      </c>
+      <c r="F37" s="49" t="inlineStr">
+        <is>
+          <t>JANINE SILVA JASIULZWICZ</t>
+        </is>
+      </c>
+      <c r="G37" s="89" t="inlineStr">
+        <is>
+          <t>874,43</t>
+        </is>
+      </c>
       <c r="H37" s="34" t="n"/>
       <c r="I37" s="32" t="n"/>
       <c r="J37" s="32" t="n"/>
@@ -4797,11 +5105,27 @@
       <c r="AC37" s="38" t="n"/>
       <c r="AD37" s="38" t="n"/>
       <c r="AE37" s="38" t="n"/>
-      <c r="AF37" s="90" t="n"/>
-      <c r="AG37" s="90" t="n"/>
-      <c r="AH37" s="32" t="n"/>
+      <c r="AF37" s="90" t="inlineStr">
+        <is>
+          <t>05871900294156</t>
+        </is>
+      </c>
+      <c r="AG37" s="90" t="inlineStr">
+        <is>
+          <t>00001526908</t>
+        </is>
+      </c>
+      <c r="AH37" s="32" t="inlineStr">
+        <is>
+          <t>25/05/2017</t>
+        </is>
+      </c>
       <c r="AI37" s="32" t="n"/>
-      <c r="AJ37" s="32" t="n"/>
+      <c r="AJ37" s="32" t="inlineStr">
+        <is>
+          <t>13120527679</t>
+        </is>
+      </c>
       <c r="AK37" s="32" t="n"/>
       <c r="AL37" s="32" t="n"/>
       <c r="AM37" s="32" t="n"/>
@@ -4839,13 +5163,33 @@
       <c r="BT37" s="1" t="n"/>
     </row>
     <row r="38" ht="15.75" customHeight="1" s="18">
-      <c r="A38" s="32" t="n"/>
+      <c r="A38" s="32" t="inlineStr">
+        <is>
+          <t>00001</t>
+        </is>
+      </c>
       <c r="B38" s="32" t="n"/>
       <c r="C38" s="32" t="n"/>
-      <c r="D38" s="32" t="n"/>
-      <c r="E38" s="49" t="n"/>
-      <c r="F38" s="49" t="n"/>
-      <c r="G38" s="89" t="n"/>
+      <c r="D38" s="32" t="inlineStr">
+        <is>
+          <t>202357520165040</t>
+        </is>
+      </c>
+      <c r="E38" s="49" t="inlineStr">
+        <is>
+          <t>COOPERATIVA LANGUIRU LTDA</t>
+        </is>
+      </c>
+      <c r="F38" s="49" t="inlineStr">
+        <is>
+          <t>ROSELI BECKER SILVA</t>
+        </is>
+      </c>
+      <c r="G38" s="89" t="inlineStr">
+        <is>
+          <t>2.835,73</t>
+        </is>
+      </c>
       <c r="H38" s="34" t="n"/>
       <c r="I38" s="32" t="n"/>
       <c r="J38" s="32" t="n"/>
@@ -4870,11 +5214,27 @@
       <c r="AC38" s="38" t="n"/>
       <c r="AD38" s="38" t="n"/>
       <c r="AE38" s="38" t="n"/>
-      <c r="AF38" s="90" t="n"/>
-      <c r="AG38" s="90" t="n"/>
-      <c r="AH38" s="32" t="n"/>
+      <c r="AF38" s="90" t="inlineStr">
+        <is>
+          <t>05871900294156</t>
+        </is>
+      </c>
+      <c r="AG38" s="90" t="inlineStr">
+        <is>
+          <t>00001556815</t>
+        </is>
+      </c>
+      <c r="AH38" s="32" t="inlineStr">
+        <is>
+          <t>19/09/2017</t>
+        </is>
+      </c>
       <c r="AI38" s="32" t="n"/>
-      <c r="AJ38" s="32" t="n"/>
+      <c r="AJ38" s="32" t="inlineStr">
+        <is>
+          <t>12511299269</t>
+        </is>
+      </c>
       <c r="AK38" s="32" t="n"/>
       <c r="AL38" s="32" t="n"/>
       <c r="AM38" s="32" t="n"/>
@@ -4912,13 +5272,33 @@
       <c r="BT38" s="1" t="n"/>
     </row>
     <row r="39" ht="15.75" customHeight="1" s="18">
-      <c r="A39" s="32" t="n"/>
+      <c r="A39" s="32" t="inlineStr">
+        <is>
+          <t>00002</t>
+        </is>
+      </c>
       <c r="B39" s="32" t="n"/>
       <c r="C39" s="32" t="n"/>
-      <c r="D39" s="32" t="n"/>
-      <c r="E39" s="49" t="n"/>
-      <c r="F39" s="49" t="n"/>
-      <c r="G39" s="89" t="n"/>
+      <c r="D39" s="32" t="inlineStr">
+        <is>
+          <t>202426720165040</t>
+        </is>
+      </c>
+      <c r="E39" s="49" t="inlineStr">
+        <is>
+          <t>COOPERATIVA LANGUIRU LTDA</t>
+        </is>
+      </c>
+      <c r="F39" s="49" t="inlineStr">
+        <is>
+          <t>SILVANI WAHLBRINCK</t>
+        </is>
+      </c>
+      <c r="G39" s="89" t="inlineStr">
+        <is>
+          <t>9.152,53</t>
+        </is>
+      </c>
       <c r="H39" s="34" t="n"/>
       <c r="I39" s="32" t="n"/>
       <c r="J39" s="32" t="n"/>
@@ -4943,11 +5323,27 @@
       <c r="AC39" s="38" t="n"/>
       <c r="AD39" s="38" t="n"/>
       <c r="AE39" s="38" t="n"/>
-      <c r="AF39" s="90" t="n"/>
-      <c r="AG39" s="90" t="n"/>
-      <c r="AH39" s="32" t="n"/>
+      <c r="AF39" s="90" t="inlineStr">
+        <is>
+          <t>05871900294156</t>
+        </is>
+      </c>
+      <c r="AG39" s="90" t="inlineStr">
+        <is>
+          <t>00001527637</t>
+        </is>
+      </c>
+      <c r="AH39" s="32" t="inlineStr">
+        <is>
+          <t>19/06/2017</t>
+        </is>
+      </c>
       <c r="AI39" s="32" t="n"/>
-      <c r="AJ39" s="32" t="n"/>
+      <c r="AJ39" s="32" t="inlineStr">
+        <is>
+          <t>12712550694</t>
+        </is>
+      </c>
       <c r="AK39" s="32" t="n"/>
       <c r="AL39" s="32" t="n"/>
       <c r="AM39" s="32" t="n"/>
@@ -4985,13 +5381,33 @@
       <c r="BT39" s="1" t="n"/>
     </row>
     <row r="40" ht="15.75" customHeight="1" s="18">
-      <c r="A40" s="32" t="n"/>
+      <c r="A40" s="32" t="inlineStr">
+        <is>
+          <t>00002</t>
+        </is>
+      </c>
       <c r="B40" s="32" t="n"/>
       <c r="C40" s="32" t="n"/>
-      <c r="D40" s="32" t="n"/>
-      <c r="E40" s="49" t="n"/>
-      <c r="F40" s="49" t="n"/>
-      <c r="G40" s="89" t="n"/>
+      <c r="D40" s="32" t="inlineStr">
+        <is>
+          <t>206283420155040</t>
+        </is>
+      </c>
+      <c r="E40" s="49" t="inlineStr">
+        <is>
+          <t>COOPERATIVA LANGUIRU LTDA</t>
+        </is>
+      </c>
+      <c r="F40" s="49" t="inlineStr">
+        <is>
+          <t>VALMIR HORST</t>
+        </is>
+      </c>
+      <c r="G40" s="89" t="inlineStr">
+        <is>
+          <t>9.792,63</t>
+        </is>
+      </c>
       <c r="H40" s="34" t="n"/>
       <c r="I40" s="32" t="n"/>
       <c r="J40" s="32" t="n"/>
@@ -5016,11 +5432,27 @@
       <c r="AC40" s="38" t="n"/>
       <c r="AD40" s="38" t="n"/>
       <c r="AE40" s="38" t="n"/>
-      <c r="AF40" s="90" t="n"/>
-      <c r="AG40" s="90" t="n"/>
-      <c r="AH40" s="32" t="n"/>
+      <c r="AF40" s="90" t="inlineStr">
+        <is>
+          <t>05871900294156</t>
+        </is>
+      </c>
+      <c r="AG40" s="90" t="inlineStr">
+        <is>
+          <t>00001445150</t>
+        </is>
+      </c>
+      <c r="AH40" s="32" t="inlineStr">
+        <is>
+          <t>07/07/2016</t>
+        </is>
+      </c>
       <c r="AI40" s="32" t="n"/>
-      <c r="AJ40" s="32" t="n"/>
+      <c r="AJ40" s="32" t="inlineStr">
+        <is>
+          <t>12625326680</t>
+        </is>
+      </c>
       <c r="AK40" s="32" t="n"/>
       <c r="AL40" s="32" t="n"/>
       <c r="AM40" s="32" t="n"/>
@@ -5058,13 +5490,33 @@
       <c r="BT40" s="1" t="n"/>
     </row>
     <row r="41" ht="15.75" customHeight="1" s="18">
-      <c r="A41" s="32" t="n"/>
+      <c r="A41" s="32" t="inlineStr">
+        <is>
+          <t>00002</t>
+        </is>
+      </c>
       <c r="B41" s="32" t="n"/>
       <c r="C41" s="32" t="n"/>
-      <c r="D41" s="32" t="n"/>
-      <c r="E41" s="49" t="n"/>
-      <c r="F41" s="49" t="n"/>
-      <c r="G41" s="89" t="n"/>
+      <c r="D41" s="32" t="inlineStr">
+        <is>
+          <t>206283420155040</t>
+        </is>
+      </c>
+      <c r="E41" s="49" t="inlineStr">
+        <is>
+          <t>COOPERATIVA LANGUIRU LTDA</t>
+        </is>
+      </c>
+      <c r="F41" s="49" t="inlineStr">
+        <is>
+          <t>VALMIR HORST</t>
+        </is>
+      </c>
+      <c r="G41" s="89" t="inlineStr">
+        <is>
+          <t>9.057,19</t>
+        </is>
+      </c>
       <c r="H41" s="34" t="n"/>
       <c r="I41" s="32" t="n"/>
       <c r="J41" s="32" t="n"/>
@@ -5089,11 +5541,27 @@
       <c r="AC41" s="38" t="n"/>
       <c r="AD41" s="38" t="n"/>
       <c r="AE41" s="38" t="n"/>
-      <c r="AF41" s="90" t="n"/>
-      <c r="AG41" s="90" t="n"/>
-      <c r="AH41" s="32" t="n"/>
+      <c r="AF41" s="90" t="inlineStr">
+        <is>
+          <t>05871900294156</t>
+        </is>
+      </c>
+      <c r="AG41" s="90" t="inlineStr">
+        <is>
+          <t>00001512281</t>
+        </is>
+      </c>
+      <c r="AH41" s="32" t="inlineStr">
+        <is>
+          <t>02/03/2017</t>
+        </is>
+      </c>
       <c r="AI41" s="32" t="n"/>
-      <c r="AJ41" s="32" t="n"/>
+      <c r="AJ41" s="32" t="inlineStr">
+        <is>
+          <t>12625326680</t>
+        </is>
+      </c>
       <c r="AK41" s="32" t="n"/>
       <c r="AL41" s="32" t="n"/>
       <c r="AM41" s="32" t="n"/>
@@ -5131,13 +5599,33 @@
       <c r="BT41" s="1" t="n"/>
     </row>
     <row r="42" ht="15.75" customHeight="1" s="18">
-      <c r="A42" s="32" t="n"/>
+      <c r="A42" s="32" t="inlineStr">
+        <is>
+          <t>00001</t>
+        </is>
+      </c>
       <c r="B42" s="32" t="n"/>
       <c r="C42" s="32" t="n"/>
-      <c r="D42" s="32" t="n"/>
-      <c r="E42" s="49" t="n"/>
-      <c r="F42" s="49" t="n"/>
-      <c r="G42" s="89" t="n"/>
+      <c r="D42" s="32" t="inlineStr">
+        <is>
+          <t>201364520155040</t>
+        </is>
+      </c>
+      <c r="E42" s="49" t="inlineStr">
+        <is>
+          <t>COOPERATIVA LANGUIRU LTDA</t>
+        </is>
+      </c>
+      <c r="F42" s="49" t="inlineStr">
+        <is>
+          <t>GILMAR LOEBLEIN</t>
+        </is>
+      </c>
+      <c r="G42" s="89" t="inlineStr">
+        <is>
+          <t>9.959,43</t>
+        </is>
+      </c>
       <c r="H42" s="34" t="n"/>
       <c r="I42" s="32" t="n"/>
       <c r="J42" s="32" t="n"/>
@@ -5162,11 +5650,27 @@
       <c r="AC42" s="38" t="n"/>
       <c r="AD42" s="38" t="n"/>
       <c r="AE42" s="38" t="n"/>
-      <c r="AF42" s="90" t="n"/>
-      <c r="AG42" s="90" t="n"/>
-      <c r="AH42" s="32" t="n"/>
+      <c r="AF42" s="90" t="inlineStr">
+        <is>
+          <t>05871900294156</t>
+        </is>
+      </c>
+      <c r="AG42" s="90" t="inlineStr">
+        <is>
+          <t>00001403407</t>
+        </is>
+      </c>
+      <c r="AH42" s="32" t="inlineStr">
+        <is>
+          <t>18/02/2016</t>
+        </is>
+      </c>
       <c r="AI42" s="32" t="n"/>
-      <c r="AJ42" s="32" t="n"/>
+      <c r="AJ42" s="32" t="inlineStr">
+        <is>
+          <t>12522168411</t>
+        </is>
+      </c>
       <c r="AK42" s="32" t="n"/>
       <c r="AL42" s="32" t="n"/>
       <c r="AM42" s="32" t="n"/>
@@ -5204,13 +5708,33 @@
       <c r="BT42" s="1" t="n"/>
     </row>
     <row r="43" ht="15.75" customHeight="1" s="18">
-      <c r="A43" s="32" t="n"/>
+      <c r="A43" s="32" t="inlineStr">
+        <is>
+          <t>00001</t>
+        </is>
+      </c>
       <c r="B43" s="32" t="n"/>
       <c r="C43" s="32" t="n"/>
-      <c r="D43" s="32" t="n"/>
-      <c r="E43" s="49" t="n"/>
-      <c r="F43" s="49" t="n"/>
-      <c r="G43" s="89" t="n"/>
+      <c r="D43" s="32" t="inlineStr">
+        <is>
+          <t>201364520165040</t>
+        </is>
+      </c>
+      <c r="E43" s="49" t="inlineStr">
+        <is>
+          <t>COOPERATIVA LANGUIRU LTDA</t>
+        </is>
+      </c>
+      <c r="F43" s="49" t="inlineStr">
+        <is>
+          <t>GILMAR LOEBLEIN</t>
+        </is>
+      </c>
+      <c r="G43" s="89" t="inlineStr">
+        <is>
+          <t>9.316,37</t>
+        </is>
+      </c>
       <c r="H43" s="34" t="n"/>
       <c r="I43" s="32" t="n"/>
       <c r="J43" s="32" t="n"/>
@@ -5235,11 +5759,27 @@
       <c r="AC43" s="38" t="n"/>
       <c r="AD43" s="38" t="n"/>
       <c r="AE43" s="38" t="n"/>
-      <c r="AF43" s="90" t="n"/>
-      <c r="AG43" s="90" t="n"/>
-      <c r="AH43" s="32" t="n"/>
+      <c r="AF43" s="90" t="inlineStr">
+        <is>
+          <t>05871900294156</t>
+        </is>
+      </c>
+      <c r="AG43" s="90" t="inlineStr">
+        <is>
+          <t>00001445231</t>
+        </is>
+      </c>
+      <c r="AH43" s="32" t="inlineStr">
+        <is>
+          <t>19/07/2016</t>
+        </is>
+      </c>
       <c r="AI43" s="32" t="n"/>
-      <c r="AJ43" s="32" t="n"/>
+      <c r="AJ43" s="32" t="inlineStr">
+        <is>
+          <t>12522168411</t>
+        </is>
+      </c>
       <c r="AK43" s="32" t="n"/>
       <c r="AL43" s="32" t="n"/>
       <c r="AM43" s="32" t="n"/>
@@ -5277,13 +5817,33 @@
       <c r="BT43" s="1" t="n"/>
     </row>
     <row r="44" ht="15.75" customHeight="1" s="18">
-      <c r="A44" s="32" t="n"/>
+      <c r="A44" s="32" t="inlineStr">
+        <is>
+          <t>00002</t>
+        </is>
+      </c>
       <c r="B44" s="32" t="n"/>
       <c r="C44" s="32" t="n"/>
-      <c r="D44" s="32" t="n"/>
-      <c r="E44" s="49" t="n"/>
-      <c r="F44" s="49" t="n"/>
-      <c r="G44" s="89" t="n"/>
+      <c r="D44" s="32" t="inlineStr">
+        <is>
+          <t>200780520165040</t>
+        </is>
+      </c>
+      <c r="E44" s="49" t="inlineStr">
+        <is>
+          <t>COOPERATIVA LANGUIRU LTDA</t>
+        </is>
+      </c>
+      <c r="F44" s="49" t="inlineStr">
+        <is>
+          <t>OLAVO DICKEL</t>
+        </is>
+      </c>
+      <c r="G44" s="89" t="inlineStr">
+        <is>
+          <t>9.209,65</t>
+        </is>
+      </c>
       <c r="H44" s="34" t="n"/>
       <c r="I44" s="32" t="n"/>
       <c r="J44" s="32" t="n"/>
@@ -5308,11 +5868,27 @@
       <c r="AC44" s="38" t="n"/>
       <c r="AD44" s="38" t="n"/>
       <c r="AE44" s="38" t="n"/>
-      <c r="AF44" s="90" t="n"/>
-      <c r="AG44" s="90" t="n"/>
-      <c r="AH44" s="32" t="n"/>
+      <c r="AF44" s="90" t="inlineStr">
+        <is>
+          <t>05871900294156</t>
+        </is>
+      </c>
+      <c r="AG44" s="90" t="inlineStr">
+        <is>
+          <t>00001520977</t>
+        </is>
+      </c>
+      <c r="AH44" s="32" t="inlineStr">
+        <is>
+          <t>26/04/2017</t>
+        </is>
+      </c>
       <c r="AI44" s="32" t="n"/>
-      <c r="AJ44" s="32" t="n"/>
+      <c r="AJ44" s="32" t="inlineStr">
+        <is>
+          <t>12446888498</t>
+        </is>
+      </c>
       <c r="AK44" s="32" t="n"/>
       <c r="AL44" s="32" t="n"/>
       <c r="AM44" s="32" t="n"/>
@@ -5350,13 +5926,33 @@
       <c r="BT44" s="1" t="n"/>
     </row>
     <row r="45" ht="15.75" customHeight="1" s="18">
-      <c r="A45" s="32" t="n"/>
+      <c r="A45" s="32" t="inlineStr">
+        <is>
+          <t>40782</t>
+        </is>
+      </c>
       <c r="B45" s="32" t="n"/>
       <c r="C45" s="32" t="n"/>
-      <c r="D45" s="32" t="n"/>
-      <c r="E45" s="49" t="n"/>
-      <c r="F45" s="49" t="n"/>
-      <c r="G45" s="89" t="n"/>
+      <c r="D45" s="32" t="inlineStr">
+        <is>
+          <t>000000208397050</t>
+        </is>
+      </c>
+      <c r="E45" s="49" t="inlineStr">
+        <is>
+          <t>COOPERATIVA LANGUIRU LTDA</t>
+        </is>
+      </c>
+      <c r="F45" s="49" t="inlineStr">
+        <is>
+          <t>OLAVO DICKEL</t>
+        </is>
+      </c>
+      <c r="G45" s="89" t="inlineStr">
+        <is>
+          <t>11,90</t>
+        </is>
+      </c>
       <c r="H45" s="34" t="n"/>
       <c r="I45" s="32" t="n"/>
       <c r="J45" s="32" t="n"/>
@@ -5381,11 +5977,27 @@
       <c r="AC45" s="38" t="n"/>
       <c r="AD45" s="38" t="n"/>
       <c r="AE45" s="38" t="n"/>
-      <c r="AF45" s="90" t="n"/>
-      <c r="AG45" s="90" t="n"/>
-      <c r="AH45" s="32" t="n"/>
+      <c r="AF45" s="90" t="inlineStr">
+        <is>
+          <t>05871900294156</t>
+        </is>
+      </c>
+      <c r="AG45" s="90" t="inlineStr">
+        <is>
+          <t>00001521353</t>
+        </is>
+      </c>
+      <c r="AH45" s="32" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
       <c r="AI45" s="32" t="n"/>
-      <c r="AJ45" s="32" t="n"/>
+      <c r="AJ45" s="32" t="inlineStr">
+        <is>
+          <t>12446888498</t>
+        </is>
+      </c>
       <c r="AK45" s="32" t="n"/>
       <c r="AL45" s="32" t="n"/>
       <c r="AM45" s="32" t="n"/>
@@ -5423,13 +6035,33 @@
       <c r="BT45" s="1" t="n"/>
     </row>
     <row r="46" ht="15.75" customHeight="1" s="18">
-      <c r="A46" s="32" t="n"/>
+      <c r="A46" s="32" t="inlineStr">
+        <is>
+          <t>00002</t>
+        </is>
+      </c>
       <c r="B46" s="32" t="n"/>
       <c r="C46" s="32" t="n"/>
-      <c r="D46" s="32" t="n"/>
-      <c r="E46" s="49" t="n"/>
-      <c r="F46" s="49" t="n"/>
-      <c r="G46" s="89" t="n"/>
+      <c r="D46" s="32" t="inlineStr">
+        <is>
+          <t>206327120155040</t>
+        </is>
+      </c>
+      <c r="E46" s="49" t="inlineStr">
+        <is>
+          <t>COOPERATIVA LANGUIRU LTDA</t>
+        </is>
+      </c>
+      <c r="F46" s="49" t="inlineStr">
+        <is>
+          <t>TIAGO ROSA MEDINA</t>
+        </is>
+      </c>
+      <c r="G46" s="89" t="inlineStr">
+        <is>
+          <t>6.010,35</t>
+        </is>
+      </c>
       <c r="H46" s="34" t="n"/>
       <c r="I46" s="32" t="n"/>
       <c r="J46" s="32" t="n"/>
@@ -5454,11 +6086,27 @@
       <c r="AC46" s="38" t="n"/>
       <c r="AD46" s="38" t="n"/>
       <c r="AE46" s="38" t="n"/>
-      <c r="AF46" s="90" t="n"/>
-      <c r="AG46" s="90" t="n"/>
-      <c r="AH46" s="32" t="n"/>
+      <c r="AF46" s="90" t="inlineStr">
+        <is>
+          <t>05871900294156</t>
+        </is>
+      </c>
+      <c r="AG46" s="90" t="inlineStr">
+        <is>
+          <t>00001440604</t>
+        </is>
+      </c>
+      <c r="AH46" s="32" t="inlineStr">
+        <is>
+          <t>08/06/2016</t>
+        </is>
+      </c>
       <c r="AI46" s="32" t="n"/>
-      <c r="AJ46" s="32" t="n"/>
+      <c r="AJ46" s="32" t="inlineStr">
+        <is>
+          <t>12922427694</t>
+        </is>
+      </c>
       <c r="AK46" s="32" t="n"/>
       <c r="AL46" s="32" t="n"/>
       <c r="AM46" s="32" t="n"/>
@@ -5496,13 +6144,33 @@
       <c r="BT46" s="1" t="n"/>
     </row>
     <row r="47" ht="15.75" customHeight="1" s="18">
-      <c r="A47" s="32" t="n"/>
+      <c r="A47" s="32" t="inlineStr">
+        <is>
+          <t>00002</t>
+        </is>
+      </c>
       <c r="B47" s="32" t="n"/>
       <c r="C47" s="32" t="n"/>
-      <c r="D47" s="32" t="n"/>
-      <c r="E47" s="49" t="n"/>
-      <c r="F47" s="49" t="n"/>
-      <c r="G47" s="89" t="n"/>
+      <c r="D47" s="32" t="inlineStr">
+        <is>
+          <t>002063271201550</t>
+        </is>
+      </c>
+      <c r="E47" s="49" t="inlineStr">
+        <is>
+          <t>COOPERATIVA LANGUIRU LTDA</t>
+        </is>
+      </c>
+      <c r="F47" s="49" t="inlineStr">
+        <is>
+          <t>TIAGO ROSA MEDINA</t>
+        </is>
+      </c>
+      <c r="G47" s="89" t="inlineStr">
+        <is>
+          <t>1.161,57</t>
+        </is>
+      </c>
       <c r="H47" s="34" t="n"/>
       <c r="I47" s="32" t="n"/>
       <c r="J47" s="32" t="n"/>
@@ -5527,11 +6195,27 @@
       <c r="AC47" s="38" t="n"/>
       <c r="AD47" s="38" t="n"/>
       <c r="AE47" s="38" t="n"/>
-      <c r="AF47" s="90" t="n"/>
-      <c r="AG47" s="90" t="n"/>
-      <c r="AH47" s="32" t="n"/>
+      <c r="AF47" s="90" t="inlineStr">
+        <is>
+          <t>05871900294156</t>
+        </is>
+      </c>
+      <c r="AG47" s="90" t="inlineStr">
+        <is>
+          <t>00001495689</t>
+        </is>
+      </c>
+      <c r="AH47" s="32" t="inlineStr">
+        <is>
+          <t>30/01/2017</t>
+        </is>
+      </c>
       <c r="AI47" s="32" t="n"/>
-      <c r="AJ47" s="32" t="n"/>
+      <c r="AJ47" s="32" t="inlineStr">
+        <is>
+          <t>12922427694</t>
+        </is>
+      </c>
       <c r="AK47" s="32" t="n"/>
       <c r="AL47" s="32" t="n"/>
       <c r="AM47" s="32" t="n"/>
@@ -5569,13 +6253,33 @@
       <c r="BT47" s="1" t="n"/>
     </row>
     <row r="48" ht="15.75" customHeight="1" s="18">
-      <c r="A48" s="32" t="n"/>
+      <c r="A48" s="32" t="inlineStr">
+        <is>
+          <t>00002</t>
+        </is>
+      </c>
       <c r="B48" s="32" t="n"/>
       <c r="C48" s="32" t="n"/>
-      <c r="D48" s="32" t="n"/>
-      <c r="E48" s="49" t="n"/>
-      <c r="F48" s="49" t="n"/>
-      <c r="G48" s="89" t="n"/>
+      <c r="D48" s="32" t="inlineStr">
+        <is>
+          <t>202253120165040</t>
+        </is>
+      </c>
+      <c r="E48" s="49" t="inlineStr">
+        <is>
+          <t>COOPERATIVA LANGUIRU LTDA</t>
+        </is>
+      </c>
+      <c r="F48" s="49" t="inlineStr">
+        <is>
+          <t>AGUINALDO BOHN</t>
+        </is>
+      </c>
+      <c r="G48" s="89" t="inlineStr">
+        <is>
+          <t>2.287,93</t>
+        </is>
+      </c>
       <c r="H48" s="34" t="n"/>
       <c r="I48" s="32" t="n"/>
       <c r="J48" s="32" t="n"/>
@@ -5600,11 +6304,27 @@
       <c r="AC48" s="38" t="n"/>
       <c r="AD48" s="38" t="n"/>
       <c r="AE48" s="38" t="n"/>
-      <c r="AF48" s="90" t="n"/>
-      <c r="AG48" s="90" t="n"/>
-      <c r="AH48" s="32" t="n"/>
+      <c r="AF48" s="90" t="inlineStr">
+        <is>
+          <t>05871900294156</t>
+        </is>
+      </c>
+      <c r="AG48" s="90" t="inlineStr">
+        <is>
+          <t>00001527475</t>
+        </is>
+      </c>
+      <c r="AH48" s="32" t="inlineStr">
+        <is>
+          <t>12/06/2017</t>
+        </is>
+      </c>
       <c r="AI48" s="32" t="n"/>
-      <c r="AJ48" s="32" t="n"/>
+      <c r="AJ48" s="32" t="inlineStr">
+        <is>
+          <t>12597898697</t>
+        </is>
+      </c>
       <c r="AK48" s="32" t="n"/>
       <c r="AL48" s="32" t="n"/>
       <c r="AM48" s="32" t="n"/>
@@ -5642,13 +6362,33 @@
       <c r="BT48" s="1" t="n"/>
     </row>
     <row r="49" ht="15.75" customHeight="1" s="18">
-      <c r="A49" s="32" t="n"/>
+      <c r="A49" s="32" t="inlineStr">
+        <is>
+          <t>00002</t>
+        </is>
+      </c>
       <c r="B49" s="32" t="n"/>
       <c r="C49" s="32" t="n"/>
-      <c r="D49" s="32" t="n"/>
-      <c r="E49" s="49" t="n"/>
-      <c r="F49" s="49" t="n"/>
-      <c r="G49" s="89" t="n"/>
+      <c r="D49" s="32" t="inlineStr">
+        <is>
+          <t>002072908201450</t>
+        </is>
+      </c>
+      <c r="E49" s="49" t="inlineStr">
+        <is>
+          <t>COOPERATIVA LANGUIRU LTDA</t>
+        </is>
+      </c>
+      <c r="F49" s="49" t="inlineStr">
+        <is>
+          <t>CARLOS ALEXANDRE SORTICA GONCALVES</t>
+        </is>
+      </c>
+      <c r="G49" s="89" t="inlineStr">
+        <is>
+          <t>7,56</t>
+        </is>
+      </c>
       <c r="H49" s="34" t="n"/>
       <c r="I49" s="32" t="n"/>
       <c r="J49" s="32" t="n"/>
@@ -5673,11 +6413,27 @@
       <c r="AC49" s="38" t="n"/>
       <c r="AD49" s="38" t="n"/>
       <c r="AE49" s="38" t="n"/>
-      <c r="AF49" s="90" t="n"/>
-      <c r="AG49" s="90" t="n"/>
-      <c r="AH49" s="32" t="n"/>
+      <c r="AF49" s="90" t="inlineStr">
+        <is>
+          <t>05871900294156</t>
+        </is>
+      </c>
+      <c r="AG49" s="90" t="inlineStr">
+        <is>
+          <t>00001358347</t>
+        </is>
+      </c>
+      <c r="AH49" s="32" t="inlineStr">
+        <is>
+          <t>16/07/2015</t>
+        </is>
+      </c>
       <c r="AI49" s="32" t="n"/>
-      <c r="AJ49" s="32" t="n"/>
+      <c r="AJ49" s="32" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AK49" s="32" t="n"/>
       <c r="AL49" s="32" t="n"/>
       <c r="AM49" s="32" t="n"/>
@@ -5715,13 +6471,33 @@
       <c r="BT49" s="1" t="n"/>
     </row>
     <row r="50" ht="15.75" customHeight="1" s="18">
-      <c r="A50" s="32" t="n"/>
+      <c r="A50" s="32" t="inlineStr">
+        <is>
+          <t>02016</t>
+        </is>
+      </c>
       <c r="B50" s="32" t="n"/>
       <c r="C50" s="32" t="n"/>
-      <c r="D50" s="32" t="n"/>
-      <c r="E50" s="49" t="n"/>
-      <c r="F50" s="49" t="n"/>
-      <c r="G50" s="89" t="n"/>
+      <c r="D50" s="32" t="inlineStr">
+        <is>
+          <t>000000002013963</t>
+        </is>
+      </c>
+      <c r="E50" s="49" t="inlineStr">
+        <is>
+          <t>COOPERATIVA LANGUIRU LTDA</t>
+        </is>
+      </c>
+      <c r="F50" s="49" t="inlineStr">
+        <is>
+          <t>LUCAS PENTEADO</t>
+        </is>
+      </c>
+      <c r="G50" s="89" t="inlineStr">
+        <is>
+          <t>3.730,04</t>
+        </is>
+      </c>
       <c r="H50" s="34" t="n"/>
       <c r="I50" s="32" t="n"/>
       <c r="J50" s="32" t="n"/>
@@ -5746,11 +6522,27 @@
       <c r="AC50" s="38" t="n"/>
       <c r="AD50" s="38" t="n"/>
       <c r="AE50" s="38" t="n"/>
-      <c r="AF50" s="90" t="n"/>
-      <c r="AG50" s="90" t="n"/>
-      <c r="AH50" s="32" t="n"/>
+      <c r="AF50" s="90" t="inlineStr">
+        <is>
+          <t>05871900294156</t>
+        </is>
+      </c>
+      <c r="AG50" s="90" t="inlineStr">
+        <is>
+          <t>00001521000</t>
+        </is>
+      </c>
+      <c r="AH50" s="32" t="inlineStr">
+        <is>
+          <t>26/04/2017</t>
+        </is>
+      </c>
       <c r="AI50" s="32" t="n"/>
-      <c r="AJ50" s="32" t="n"/>
+      <c r="AJ50" s="32" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AK50" s="32" t="n"/>
       <c r="AL50" s="32" t="n"/>
       <c r="AM50" s="32" t="n"/>
@@ -5788,13 +6580,33 @@
       <c r="BT50" s="1" t="n"/>
     </row>
     <row r="51" ht="15.75" customHeight="1" s="18">
-      <c r="A51" s="32" t="n"/>
+      <c r="A51" s="32" t="inlineStr">
+        <is>
+          <t>00001</t>
+        </is>
+      </c>
       <c r="B51" s="32" t="n"/>
       <c r="C51" s="32" t="n"/>
-      <c r="D51" s="32" t="n"/>
-      <c r="E51" s="49" t="n"/>
-      <c r="F51" s="49" t="n"/>
-      <c r="G51" s="89" t="n"/>
+      <c r="D51" s="32" t="inlineStr">
+        <is>
+          <t>201396320165040</t>
+        </is>
+      </c>
+      <c r="E51" s="49" t="inlineStr">
+        <is>
+          <t>COOPERATIVA LANGUIRU LTDA</t>
+        </is>
+      </c>
+      <c r="F51" s="49" t="inlineStr">
+        <is>
+          <t>LUCAS PENTEADO</t>
+        </is>
+      </c>
+      <c r="G51" s="89" t="inlineStr">
+        <is>
+          <t>45,20</t>
+        </is>
+      </c>
       <c r="H51" s="34" t="n"/>
       <c r="I51" s="32" t="n"/>
       <c r="J51" s="32" t="n"/>
@@ -5819,11 +6631,27 @@
       <c r="AC51" s="38" t="n"/>
       <c r="AD51" s="38" t="n"/>
       <c r="AE51" s="38" t="n"/>
-      <c r="AF51" s="90" t="n"/>
-      <c r="AG51" s="90" t="n"/>
-      <c r="AH51" s="32" t="n"/>
+      <c r="AF51" s="90" t="inlineStr">
+        <is>
+          <t>05871900294156</t>
+        </is>
+      </c>
+      <c r="AG51" s="90" t="inlineStr">
+        <is>
+          <t>00001541117</t>
+        </is>
+      </c>
+      <c r="AH51" s="32" t="inlineStr">
+        <is>
+          <t>24/08/2017</t>
+        </is>
+      </c>
       <c r="AI51" s="32" t="n"/>
-      <c r="AJ51" s="32" t="n"/>
+      <c r="AJ51" s="32" t="inlineStr">
+        <is>
+          <t>12616493677</t>
+        </is>
+      </c>
       <c r="AK51" s="32" t="n"/>
       <c r="AL51" s="32" t="n"/>
       <c r="AM51" s="32" t="n"/>
@@ -5861,13 +6689,33 @@
       <c r="BT51" s="1" t="n"/>
     </row>
     <row r="52" ht="15.75" customHeight="1" s="18">
-      <c r="A52" s="32" t="n"/>
+      <c r="A52" s="32" t="inlineStr">
+        <is>
+          <t>00001</t>
+        </is>
+      </c>
       <c r="B52" s="32" t="n"/>
       <c r="C52" s="32" t="n"/>
-      <c r="D52" s="32" t="n"/>
-      <c r="E52" s="49" t="n"/>
-      <c r="F52" s="49" t="n"/>
-      <c r="G52" s="89" t="n"/>
+      <c r="D52" s="32" t="inlineStr">
+        <is>
+          <t>202941120155040</t>
+        </is>
+      </c>
+      <c r="E52" s="49" t="inlineStr">
+        <is>
+          <t>COOPERATIVA LANGUIRU LTDA</t>
+        </is>
+      </c>
+      <c r="F52" s="49" t="inlineStr">
+        <is>
+          <t>MAIRA JULIANA CARDOSO</t>
+        </is>
+      </c>
+      <c r="G52" s="89" t="inlineStr">
+        <is>
+          <t>10,53</t>
+        </is>
+      </c>
       <c r="H52" s="34" t="n"/>
       <c r="I52" s="32" t="n"/>
       <c r="J52" s="32" t="n"/>
@@ -5892,11 +6740,27 @@
       <c r="AC52" s="38" t="n"/>
       <c r="AD52" s="38" t="n"/>
       <c r="AE52" s="38" t="n"/>
-      <c r="AF52" s="90" t="n"/>
-      <c r="AG52" s="90" t="n"/>
-      <c r="AH52" s="32" t="n"/>
+      <c r="AF52" s="90" t="inlineStr">
+        <is>
+          <t>05871900294156</t>
+        </is>
+      </c>
+      <c r="AG52" s="90" t="inlineStr">
+        <is>
+          <t>00001425710</t>
+        </is>
+      </c>
+      <c r="AH52" s="32" t="inlineStr">
+        <is>
+          <t>04/04/2016</t>
+        </is>
+      </c>
       <c r="AI52" s="32" t="n"/>
-      <c r="AJ52" s="32" t="n"/>
+      <c r="AJ52" s="32" t="inlineStr">
+        <is>
+          <t>16353486546</t>
+        </is>
+      </c>
       <c r="AK52" s="32" t="n"/>
       <c r="AL52" s="32" t="n"/>
       <c r="AM52" s="32" t="n"/>
@@ -5934,13 +6798,33 @@
       <c r="BT52" s="1" t="n"/>
     </row>
     <row r="53" ht="15.75" customHeight="1" s="18">
-      <c r="A53" s="32" t="n"/>
+      <c r="A53" s="32" t="inlineStr">
+        <is>
+          <t>00002</t>
+        </is>
+      </c>
       <c r="B53" s="32" t="n"/>
       <c r="C53" s="32" t="n"/>
-      <c r="D53" s="32" t="n"/>
-      <c r="E53" s="49" t="n"/>
-      <c r="F53" s="49" t="n"/>
-      <c r="G53" s="89" t="n"/>
+      <c r="D53" s="32" t="inlineStr">
+        <is>
+          <t>207391820155040</t>
+        </is>
+      </c>
+      <c r="E53" s="49" t="inlineStr">
+        <is>
+          <t>COOPERATIVA LANGUIRU LTDA</t>
+        </is>
+      </c>
+      <c r="F53" s="49" t="inlineStr">
+        <is>
+          <t>TALITA ROSA</t>
+        </is>
+      </c>
+      <c r="G53" s="89" t="inlineStr">
+        <is>
+          <t>8,56</t>
+        </is>
+      </c>
       <c r="H53" s="34" t="n"/>
       <c r="I53" s="32" t="n"/>
       <c r="J53" s="32" t="n"/>
@@ -5965,11 +6849,27 @@
       <c r="AC53" s="38" t="n"/>
       <c r="AD53" s="38" t="n"/>
       <c r="AE53" s="38" t="n"/>
-      <c r="AF53" s="90" t="n"/>
-      <c r="AG53" s="90" t="n"/>
-      <c r="AH53" s="32" t="n"/>
+      <c r="AF53" s="90" t="inlineStr">
+        <is>
+          <t>05871900294156</t>
+        </is>
+      </c>
+      <c r="AG53" s="90" t="inlineStr">
+        <is>
+          <t>00001487660</t>
+        </is>
+      </c>
+      <c r="AH53" s="32" t="inlineStr">
+        <is>
+          <t>30/11/2016</t>
+        </is>
+      </c>
       <c r="AI53" s="32" t="n"/>
-      <c r="AJ53" s="32" t="n"/>
+      <c r="AJ53" s="32" t="inlineStr">
+        <is>
+          <t>16532923231</t>
+        </is>
+      </c>
       <c r="AK53" s="32" t="n"/>
       <c r="AL53" s="32" t="n"/>
       <c r="AM53" s="32" t="n"/>
@@ -6007,13 +6907,33 @@
       <c r="BT53" s="1" t="n"/>
     </row>
     <row r="54" ht="15.75" customHeight="1" s="18">
-      <c r="A54" s="32" t="n"/>
+      <c r="A54" s="32" t="inlineStr">
+        <is>
+          <t>00002</t>
+        </is>
+      </c>
       <c r="B54" s="32" t="n"/>
       <c r="C54" s="32" t="n"/>
-      <c r="D54" s="32" t="n"/>
-      <c r="E54" s="49" t="n"/>
-      <c r="F54" s="49" t="n"/>
-      <c r="G54" s="89" t="n"/>
+      <c r="D54" s="32" t="inlineStr">
+        <is>
+          <t>793372013504078</t>
+        </is>
+      </c>
+      <c r="E54" s="49" t="inlineStr">
+        <is>
+          <t>COOPERATIVA LANGUIRU LTDA</t>
+        </is>
+      </c>
+      <c r="F54" s="49" t="inlineStr">
+        <is>
+          <t>EDEGAR NUSCK</t>
+        </is>
+      </c>
+      <c r="G54" s="89" t="inlineStr">
+        <is>
+          <t>19.311,26</t>
+        </is>
+      </c>
       <c r="H54" s="34" t="n"/>
       <c r="I54" s="32" t="n"/>
       <c r="J54" s="32" t="n"/>
@@ -6038,11 +6958,27 @@
       <c r="AC54" s="38" t="n"/>
       <c r="AD54" s="38" t="n"/>
       <c r="AE54" s="38" t="n"/>
-      <c r="AF54" s="90" t="n"/>
-      <c r="AG54" s="90" t="n"/>
-      <c r="AH54" s="32" t="n"/>
+      <c r="AF54" s="90" t="inlineStr">
+        <is>
+          <t>05871900294156</t>
+        </is>
+      </c>
+      <c r="AG54" s="90" t="inlineStr">
+        <is>
+          <t>00001239178</t>
+        </is>
+      </c>
+      <c r="AH54" s="32" t="inlineStr">
+        <is>
+          <t>24/11/2014</t>
+        </is>
+      </c>
       <c r="AI54" s="32" t="n"/>
-      <c r="AJ54" s="32" t="n"/>
+      <c r="AJ54" s="32" t="inlineStr">
+        <is>
+          <t>12743927714</t>
+        </is>
+      </c>
       <c r="AK54" s="32" t="n"/>
       <c r="AL54" s="32" t="n"/>
       <c r="AM54" s="32" t="n"/>
@@ -6080,13 +7016,33 @@
       <c r="BT54" s="1" t="n"/>
     </row>
     <row r="55" ht="15.75" customHeight="1" s="18">
-      <c r="A55" s="32" t="n"/>
+      <c r="A55" s="32" t="inlineStr">
+        <is>
+          <t>00002</t>
+        </is>
+      </c>
       <c r="B55" s="32" t="n"/>
       <c r="C55" s="32" t="n"/>
-      <c r="D55" s="32" t="n"/>
-      <c r="E55" s="49" t="n"/>
-      <c r="F55" s="49" t="n"/>
-      <c r="G55" s="89" t="n"/>
+      <c r="D55" s="32" t="inlineStr">
+        <is>
+          <t>793342013504078</t>
+        </is>
+      </c>
+      <c r="E55" s="49" t="inlineStr">
+        <is>
+          <t>COOPERATIVA LANGUIRU LTDA</t>
+        </is>
+      </c>
+      <c r="F55" s="49" t="inlineStr">
+        <is>
+          <t>EDEGAR NUSCKE</t>
+        </is>
+      </c>
+      <c r="G55" s="89" t="inlineStr">
+        <is>
+          <t>9.786,46</t>
+        </is>
+      </c>
       <c r="H55" s="34" t="n"/>
       <c r="I55" s="32" t="n"/>
       <c r="J55" s="32" t="n"/>
@@ -6111,11 +7067,27 @@
       <c r="AC55" s="38" t="n"/>
       <c r="AD55" s="38" t="n"/>
       <c r="AE55" s="38" t="n"/>
-      <c r="AF55" s="90" t="n"/>
-      <c r="AG55" s="90" t="n"/>
-      <c r="AH55" s="32" t="n"/>
+      <c r="AF55" s="90" t="inlineStr">
+        <is>
+          <t>05871900294156</t>
+        </is>
+      </c>
+      <c r="AG55" s="90" t="inlineStr">
+        <is>
+          <t>00001106453</t>
+        </is>
+      </c>
+      <c r="AH55" s="32" t="inlineStr">
+        <is>
+          <t>24/03/2014</t>
+        </is>
+      </c>
       <c r="AI55" s="32" t="n"/>
-      <c r="AJ55" s="32" t="n"/>
+      <c r="AJ55" s="32" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
       <c r="AK55" s="32" t="n"/>
       <c r="AL55" s="32" t="n"/>
       <c r="AM55" s="32" t="n"/>
